--- a/ccbhc_measurements/dashboard/excel files/SDOH_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/SDOH_sub_1_stratification.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11332</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,19 +463,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20202</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26287</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32851</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35383</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,138 +548,138 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45421</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>64607</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,41 +691,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>76051</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>86683</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>90185</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -735,14 +735,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>92210</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
